--- a/billing/app/in/rates.xlsx
+++ b/billing/app/in/rates.xlsx
@@ -70,6 +70,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -151,7 +152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -161,10 +162,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -303,7 +301,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>90</v>
+        <v>990</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>45</v>
